--- a/biology/Botanique/Acacia_shirleyi/Acacia_shirleyi.xlsx
+++ b/biology/Botanique/Acacia_shirleyi/Acacia_shirleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia shirleyi est une espèce d'Acacia de la famille des Mimosaceae, ou des Fabaceae selon la classification phylogénétique, endémique en Australie.
 Il peut atteindre 15 mètres de haut et se caractérise par les rainures de son écorce. Les fleurs apparaissent d'avril à juillet.
